--- a/biology/Zoologie/Hadogenes_hahni/Hadogenes_hahni.xlsx
+++ b/biology/Zoologie/Hadogenes_hahni/Hadogenes_hahni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hadogenes hahni est une espèce de scorpions de la famille des Hormuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le Sud-Est de l'Angola et dans le Nord de la Namibie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le Sud-Est de l'Angola et dans le Nord de la Namibie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 112,90 à 154,03 mm et les femelles de 112,53 à 153,53 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 112,90 à 154,03 mm et les femelles de 112,53 à 153,53 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ischnurus hahni par Peters en 1862. Elle est placée dans le genre Hadogenes par Fet en 2000[1] qui dans le même temps place Hadogenes taeniurus en synonymie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ischnurus hahni par Peters en 1862. Elle est placée dans le genre Hadogenes par Fet en 2000 qui dans le même temps place Hadogenes taeniurus en synonymie.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Carl-Hugo Hahn (1818-1895)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Carl-Hugo Hahn (1818-1895).
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Peters, 1862 : Derselbe legte eine neue Scorpionenart Prionurus villosus. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 11, p. 26-27 (texte intégral).</t>
         </is>
